--- a/集團企業名單.xlsx
+++ b/集團企業名單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\實證研究\python_ds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A3476E-9D1E-4864-B462-801FA3C879BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C734E0E6-F65A-4F49-9B30-F87AFA23A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5145,7 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1064"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A778" workbookViewId="0">
       <selection activeCell="D964" sqref="D964"/>
     </sheetView>
   </sheetViews>
